--- a/docs/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
+++ b/docs/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>交易终端信息（除官网上提供之外的）</t>
   </si>
@@ -192,11 +192,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,15 +216,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,103 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -335,6 +252,89 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -357,6 +357,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,169 +381,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,8 +594,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +639,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -639,26 +665,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,27 +688,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,13 +982,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>430775</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1006,7 +1006,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3790950"/>
+          <a:off x="0" y="3971925"/>
           <a:ext cx="7298055" cy="3267075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1511,10 +1511,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1731,37 +1731,43 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:4">
       <c r="A16" s="4">
-        <v>159030</v>
+        <v>21000031</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" s="4">
+        <v>159030</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1769,19 +1775,27 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
